--- a/data/teams.xlsx
+++ b/data/teams.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarth\Desktop\auction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F8FD81-A3B9-4304-AAA4-3FBB9BBB9EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD719D85-76CD-4E5B-8F05-FC10A18A195B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D6F4CE61-CE4C-4A5A-9A7E-E29CB207049C}"/>
   </bookViews>
@@ -42,28 +42,28 @@
     <t>Balance</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
+    <t>Maheshwari Royals</t>
+  </si>
+  <si>
+    <t>Kabra Kings</t>
+  </si>
+  <si>
+    <t>Sourabh Warriors</t>
+  </si>
+  <si>
+    <t>Aaradhya Superstars</t>
+  </si>
+  <si>
+    <t>Raju Riders</t>
+  </si>
+  <si>
+    <t>Sunny Spartans</t>
+  </si>
+  <si>
+    <t>Lathi Lions</t>
+  </si>
+  <si>
+    <t>Royal Challengers Dewas</t>
   </si>
 </sst>
 </file>
@@ -432,12 +432,12 @@
   <dimension ref="B3:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
     <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
